--- a/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
+++ b/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
@@ -171,7 +171,7 @@
     <t>TS5</t>
   </si>
   <si>
-    <t>Kiểm tra click đáp án 1</t>
+    <t>Kiểm tra click đáp án đúng</t>
   </si>
   <si>
     <t>press</t>
@@ -275,7 +275,7 @@
     <t>Kiểm tra text câu hàng 3</t>
   </si>
   <si>
-    <t>CaSke.SkeletonGraphic,AnimationState,120,Intro</t>
+    <t>CaSke,SkeletonGraphic,AnimationState,120,Blink</t>
   </si>
   <si>
     <t>Layer3-Brick/Text (TMP)(Clone),TextMeshProUGUI</t>
@@ -3032,24 +3032,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F36" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
       </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
@@ -3074,20 +3072,25 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="F37" s="41" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
@@ -3111,12 +3114,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3148,16 +3151,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
@@ -3185,16 +3188,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="40"/>
@@ -3222,16 +3225,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -3259,22 +3262,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="43"/>
-      <c r="E42" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E42" s="43"/>
       <c r="F42" s="40"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
@@ -3299,23 +3299,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="E43" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="40"/>
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
       <c r="I43" s="39"/>
@@ -3339,12 +3339,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3353,8 +3353,8 @@
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
@@ -3379,12 +3379,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3393,8 +3393,8 @@
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
@@ -3419,12 +3419,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3433,8 +3433,8 @@
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
       </c>
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
@@ -3459,12 +3459,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3472,7 +3472,10 @@
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
+      <c r="F47" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
@@ -3496,12 +3499,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3533,12 +3536,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3570,12 +3573,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3583,10 +3586,7 @@
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F50" s="43"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
@@ -3610,20 +3610,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
+      <c r="F51" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
@@ -3647,16 +3650,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
@@ -3684,8 +3687,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -3725,8 +3728,8 @@
         <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3758,23 +3761,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="40"/>
       <c r="E55" s="43"/>
-      <c r="F55" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F55" s="43"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
@@ -3798,25 +3798,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D56" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+      <c r="D56" s="43"/>
       <c r="E56" s="43"/>
-      <c r="F56" s="40"/>
+      <c r="F56" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
@@ -3840,18 +3838,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D57" s="40"/>
+      <c r="D57" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
       <c r="G57" s="39"/>
@@ -3877,21 +3880,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="43"/>
       <c r="E58" s="40"/>
       <c r="F58" s="43"/>
       <c r="G58" s="39"/>
@@ -3917,23 +3917,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="43"/>
+      <c r="D59" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E59" s="43"/>
-      <c r="F59" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F59" s="43"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
@@ -3961,19 +3961,19 @@
         <v>getListAudioSource</v>
       </c>
       <c r="B60" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+      <c r="D60" s="43"/>
       <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
+      <c r="F60" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
@@ -3997,22 +3997,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="44" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D61" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
+      <c r="E61" s="43"/>
       <c r="F61" s="43"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
@@ -4037,19 +4037,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="40"/>
-      <c r="E62" s="43"/>
+      <c r="E62" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="43"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
@@ -4074,12 +4077,12 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4115,8 +4118,8 @@
         <v>isScale</v>
       </c>
       <c r="B64" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4148,21 +4151,18 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D65" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="43"/>
       <c r="G65" s="39"/>
@@ -4188,27 +4188,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C66" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="40"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="43"/>
-      <c r="F66" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F66" s="40"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
       <c r="I66" s="39"/>
@@ -4232,8 +4228,8 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
@@ -4248,12 +4244,10 @@
       <c r="F67" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
+3. indexSplit:1")</f>
         <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+3. indexSplit:1</v>
       </c>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
@@ -4282,13 +4276,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B68" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C68" s="40"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C68" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
-      <c r="F68" s="40"/>
+      <c r="F68" s="40" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
       <c r="I68" s="39"/>
@@ -4312,17 +4318,14 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C69" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="40"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="40"/>
@@ -4349,26 +4352,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D70" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F70" s="43"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
       <c r="I70" s="39"/>
@@ -4392,22 +4389,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="43"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="43"/>
       <c r="F71" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
@@ -4432,12 +4432,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4445,7 +4445,10 @@
       </c>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="F72" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
       <c r="I72" s="39"/>
@@ -4469,12 +4472,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4482,10 +4485,7 @@
       </c>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
-      <c r="F73" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F73" s="43"/>
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
       <c r="I73" s="39"/>
@@ -4509,12 +4509,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C74" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4522,10 +4522,7 @@
       </c>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
-      <c r="F74" s="43" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
-      </c>
+      <c r="F74" s="43"/>
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
       <c r="I74" s="39"/>
@@ -4549,16 +4546,16 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="40" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
@@ -4586,12 +4583,12 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C76" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4599,7 +4596,10 @@
       </c>
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
+      <c r="F76" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
       <c r="I76" s="39"/>
@@ -4623,12 +4623,12 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4636,7 +4636,10 @@
       </c>
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
+      <c r="F77" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
       <c r="I77" s="39"/>
@@ -4660,16 +4663,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
@@ -4697,12 +4700,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4734,12 +4737,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4771,12 +4774,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4808,12 +4811,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4845,12 +4848,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4882,12 +4885,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4895,10 +4898,7 @@
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
-      <c r="F84" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
       <c r="I84" s="39"/>
@@ -4922,12 +4922,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4959,12 +4959,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4996,12 +4996,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5010,8 +5010,8 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
       <c r="F87" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
       </c>
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
@@ -5036,12 +5036,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B88" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C88" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5049,10 +5049,7 @@
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
-      <c r="F88" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
       <c r="I88" s="39"/>
@@ -5076,12 +5073,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B89" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C89" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5089,10 +5086,7 @@
       </c>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
-      <c r="F89" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
-      </c>
+      <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
       <c r="I89" s="39"/>
@@ -5116,12 +5110,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C90" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5153,12 +5147,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C91" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5166,7 +5160,10 @@
       </c>
       <c r="D91" s="39"/>
       <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
+      <c r="F91" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
+      </c>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
       <c r="I91" s="39"/>
@@ -5190,10 +5187,13 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B92" s="39"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
+      </c>
+      <c r="B92" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
+      </c>
       <c r="C92" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -5201,8 +5201,8 @@
       <c r="D92" s="39"/>
       <c r="E92" s="39"/>
       <c r="F92" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
@@ -5227,10 +5227,13 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B93" s="39"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
+      </c>
+      <c r="B93" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
+      </c>
       <c r="C93" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -5238,8 +5241,8 @@
       <c r="D93" s="39"/>
       <c r="E93" s="39"/>
       <c r="F93" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
       </c>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
@@ -5264,16 +5267,16 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B94" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C94" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D94" s="39"/>
       <c r="E94" s="39"/>
@@ -5301,16 +5304,16 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
       </c>
       <c r="B95" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
       </c>
       <c r="C95" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D95" s="39"/>
       <c r="E95" s="39"/>
@@ -5338,20 +5341,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
-      </c>
-      <c r="B96" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
+      <c r="B96" s="39"/>
       <c r="C96" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
+      <c r="F96" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
       <c r="I96" s="39"/>
@@ -5375,13 +5378,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
-      </c>
-      <c r="B97" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B97" s="39"/>
       <c r="C97" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -5389,8 +5389,8 @@
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
       <c r="F97" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
       </c>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
@@ -5415,16 +5415,16 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B98" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C98" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -5452,12 +5452,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B99" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C99" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5488,9 +5488,18 @@
       <c r="Z99" s="39"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
+      <c r="A100" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
+      </c>
+      <c r="B100" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
+      </c>
+      <c r="C100" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
       <c r="F100" s="39"/>
@@ -5516,12 +5525,24 @@
       <c r="Z100" s="39"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
+      <c r="A101" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
+      </c>
+      <c r="B101" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+      </c>
+      <c r="C101" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
+      <c r="F101" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
       <c r="I101" s="39"/>
@@ -5544,9 +5565,18 @@
       <c r="Z101" s="39"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
+      <c r="A102" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B102" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C102" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
       <c r="F102" s="39"/>
@@ -5572,9 +5602,18 @@
       <c r="Z102" s="39"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
+      <c r="A103" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B103" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C103" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
       <c r="F103" s="39"/>
@@ -5600,12 +5639,24 @@
       <c r="Z103" s="39"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
+      <c r="A104" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B104" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C104" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
+      <c r="F104" s="39" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
       <c r="I104" s="39"/>

--- a/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
+++ b/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
@@ -232,7 +232,7 @@
     <t>Đợi hàng 3 xuất hiện</t>
   </si>
   <si>
-    <t>Layer3-Brick</t>
+    <t>Layer3-Brick/Answers</t>
   </si>
   <si>
     <t>TS9</t>
@@ -262,7 +262,7 @@
     <t>AnswerBrick(Clone)[2]/TextLearn,TextMeshProUGUI</t>
   </si>
   <si>
-    <t>Đợi 1 s</t>
+    <t>Đợi 2 s</t>
   </si>
   <si>
     <t>sleep</t>

--- a/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
+++ b/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>TCID</t>
   </si>
@@ -144,7 +144,7 @@
     <t>AnswerBrick(Clone)[0]/TextLearn</t>
   </si>
   <si>
-    <t>getTextAlphabet</t>
+    <t>getTextAlphabetAndNumber</t>
   </si>
   <si>
     <t>AnswerBrick(Clone)[0]/TextLearn,TextMeshProUGUI</t>
@@ -250,13 +250,19 @@
     <t>$.act[?(@.game_name=="BrickLayer.BE.RS01(Clone)")].turn[0].word[?(@.type=='question')].text</t>
   </si>
   <si>
-    <t>Answer\AnswerBrick(Clone)</t>
+    <t>Answer/AnswerBrick(Clone)[0],20</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BrickLayer.BE.RS01(Clone)")].turn[1].word[?(@.type=='answer')].text</t>
   </si>
   <si>
+    <t>Answer/AnswerBrick(Clone)[1]</t>
+  </si>
+  <si>
     <t>Kiểm tra text đáp án 3</t>
+  </si>
+  <si>
+    <t>Answer/AnswerBrick(Clone)[2]</t>
   </si>
   <si>
     <t>AnswerBrick(Clone)[2]/TextLearn,TextMeshProUGUI</t>
@@ -453,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -608,6 +614,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,8 +1506,12 @@
       <c r="C12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="27" t="s">
         <v>15</v>
@@ -1525,10 +1538,14 @@
         <v>38</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="27" t="s">
         <v>15</v>
@@ -1537,7 +1554,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="30" t="s">
@@ -1555,13 +1572,13 @@
         <v>44</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="27" t="s">
@@ -1592,7 +1609,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>15</v>
@@ -1619,7 +1636,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
@@ -1638,16 +1655,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="38" t="s">
@@ -1660,10 +1677,10 @@
         <v>62</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -1674,16 +1691,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="27" t="s">
@@ -1693,11 +1710,11 @@
         <v>69</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="23"/>
@@ -1711,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="34" t="s">
@@ -1809,10 +1826,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2229,12 +2246,12 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToLeft")</f>
-        <v>swipeToLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickDownAndUpChild")</f>
+        <v>clickDownAndUpChild</v>
       </c>
       <c r="B11" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,index")</f>
+        <v>element,index</v>
       </c>
       <c r="C11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2243,8 +2260,8 @@
       <c r="D11" s="52"/>
       <c r="E11" s="18"/>
       <c r="F11" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang trái")</f>
-        <v>Scroll sang trái</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element của parent,index của child")</f>
+        <v>element của parent,index của child</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -2269,12 +2286,12 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToLeft")</f>
-        <v>swipeToLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipe")</f>
+        <v>swipe</v>
       </c>
       <c r="B12" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
-        <v>x1,x2,y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y,number")</f>
+        <v>x1,x2,y,number</v>
       </c>
       <c r="C12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2283,8 +2300,14 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang trái, tọa độ là số nguyên")</f>
-        <v>Scroll sang trái, tọa độ là số nguyên</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"- scroll ngang
+- Tọa độ là int
+- x1 (start) tới x2 (end)
+- Number: là số lần vuốt")</f>
+        <v>- scroll ngang
+- Tọa độ là int
+- x1 (start) tới x2 (end)
+- Number: là số lần vuốt</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
@@ -2309,12 +2332,12 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipe")</f>
-        <v>swipe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B13" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
-        <v>x1,x2,y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
+        <v>element[,timeout(s)]</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2323,12 +2346,8 @@
       <c r="D13" s="52"/>
       <c r="E13" s="18"/>
       <c r="F13" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"- scroll ngang
-- Tọa độ là int
-- x1 (start) tới x2 (end)")</f>
-        <v>- scroll ngang
-- Tọa độ là int
-- x1 (start) tới x2 (end)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Kiểm tra gameobject(element) có xuất hiện trên màn hình k")</f>
+        <v>Kiểm tra gameobject(element) có xuất hiện trên màn hình k</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
@@ -2357,8 +2376,8 @@
         <v>waitForObject</v>
       </c>
       <c r="B14" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
-        <v>element[,timeout(s)]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSpli,second, element")</f>
+        <v>strSpli,second, element</v>
       </c>
       <c r="C14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2366,10 +2385,7 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Kiểm tra gameobject(element) có xuất hiện trên màn hình k")</f>
-        <v>Kiểm tra gameobject(element) có xuất hiện trên màn hình k</v>
-      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -2393,12 +2409,12 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNoReturn")</f>
+        <v>waitForObjectNoReturn</v>
       </c>
       <c r="B15" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSpli,second, element")</f>
-        <v>strSpli,second, element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
+        <v>element,timeout(s)</v>
       </c>
       <c r="C15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2406,7 +2422,10 @@
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="53"/>
+      <c r="F15" s="53" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true")</f>
+        <v>hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true</v>
+      </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -2430,12 +2449,12 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNoReturn")</f>
-        <v>waitForObjectNoReturn</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContain")</f>
+        <v>waitForObjectContain</v>
       </c>
       <c r="B16" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
-        <v>element,timeout(s)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2443,10 +2462,7 @@
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true")</f>
-        <v>hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true</v>
-      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -2474,8 +2490,8 @@
         <v>waitForObjectContain</v>
       </c>
       <c r="B17" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,key,content")</f>
+        <v>element,key,content</v>
       </c>
       <c r="C17" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2507,12 +2523,12 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContain")</f>
-        <v>waitForObjectContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForNumber")</f>
+        <v>waitForNumber</v>
       </c>
       <c r="B18" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,key,content")</f>
-        <v>element,key,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,number")</f>
+        <v>element,component,property,second,number</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2543,12 +2559,18 @@
       <c r="Z18" s="50"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectInScreen")</f>
+        <v>waitForObjectInScreen</v>
+      </c>
       <c r="B19" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,key,strAdd,second,content")</f>
-        <v>locator,key,strAdd,second,content</v>
-      </c>
-      <c r="C19" s="53"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
+        <v>element[,timeout(s)]</v>
+      </c>
+      <c r="C19" s="53" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2575,12 +2597,12 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectInScreen")</f>
-        <v>waitForObjectInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForChildObjectDisplay")</f>
+        <v>waitForChildObjectDisplay</v>
       </c>
       <c r="B20" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
-        <v>element[,timeout(s)]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
+        <v>element,timeout(s)</v>
       </c>
       <c r="C20" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2612,12 +2634,12 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"simulateClick")</f>
-        <v>simulateClick</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForPosition")</f>
+        <v>waitForPosition</v>
       </c>
       <c r="B21" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,property[,index]")</f>
-        <v>element,property[,index]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,y,compare(number),second")</f>
+        <v>element1,element2,y,compare(number),second</v>
       </c>
       <c r="C21" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2649,12 +2671,12 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
-        <v>press</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"simulateClick")</f>
+        <v>simulateClick</v>
       </c>
       <c r="B22" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,index]")</f>
-        <v>element[,index]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,property[,index]")</f>
+        <v>element,property[,index]</v>
       </c>
       <c r="C22" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2686,12 +2708,12 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressWithTag")</f>
-        <v>pressWithTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
+        <v>press</v>
       </c>
       <c r="B23" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tagNew,tagOld")</f>
-        <v>tagNew,tagOld</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,index]")</f>
+        <v>element[,index]</v>
       </c>
       <c r="C23" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2723,23 +2745,20 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
-        <v>swipeToRight</v>
-      </c>
-      <c r="B24" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
-      </c>
-      <c r="C24" s="51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
+        <v>press</v>
+      </c>
+      <c r="B24" s="53" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pre-element,index,element")</f>
+        <v>pre-element,index,element</v>
+      </c>
+      <c r="C24" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
-        <v>Scroll sang phải</v>
-      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
@@ -2763,23 +2782,20 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
-        <v>swipeToRight</v>
-      </c>
-      <c r="B25" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
-        <v>x1,x2,y</v>
-      </c>
-      <c r="C25" s="51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressWithTag")</f>
+        <v>pressWithTag</v>
+      </c>
+      <c r="B25" s="53" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tagNew,tagOld")</f>
+        <v>tagNew,tagOld</v>
+      </c>
+      <c r="C25" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
-        <v>Scroll sang phải</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
       <c r="I25" s="50"/>
@@ -2803,20 +2819,23 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValue")</f>
-        <v>getPropertyValue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
+        <v>swipeToRight</v>
       </c>
       <c r="B26" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
-        <v>element,component,property</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C26" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
+        <v>Scroll sang phải</v>
+      </c>
       <c r="G26" s="50"/>
       <c r="H26" s="50"/>
       <c r="I26" s="50"/>
@@ -2840,20 +2859,23 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageName")</f>
-        <v>getImageName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
+        <v>swipeToRight</v>
       </c>
       <c r="B27" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,component]")</f>
-        <v>element[,component]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
+        <v>x1,x2,y</v>
       </c>
       <c r="C27" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
+        <v>Scroll sang phải</v>
+      </c>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
@@ -2877,12 +2899,12 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameVariable")</f>
-        <v>getImageNameVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValue")</f>
+        <v>getPropertyValue</v>
       </c>
       <c r="B28" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate,element[,component],key")</f>
-        <v>generate,element[,component],key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
       </c>
       <c r="C28" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2914,12 +2936,12 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageColor")</f>
-        <v>getImageColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageName")</f>
+        <v>getImageName</v>
       </c>
       <c r="B29" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,component]")</f>
+        <v>element[,component]</v>
       </c>
       <c r="C29" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2951,12 +2973,12 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValues")</f>
-        <v>getPropertyValues</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameVariable")</f>
+        <v>getImageNameVariable</v>
       </c>
       <c r="B30" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second")</f>
-        <v>element,component,property,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate,element[,component],key")</f>
+        <v>generate,element[,component],key</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2964,10 +2986,7 @@
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"param number là số lượng value cần check")</f>
-        <v>param number là số lượng value cần check</v>
-      </c>
+      <c r="F30" s="53"/>
       <c r="G30" s="50"/>
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
@@ -2991,12 +3010,12 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getText")</f>
-        <v>getText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageColor")</f>
+        <v>getImageColor</v>
       </c>
       <c r="B31" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
-        <v>element,component</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C31" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3028,12 +3047,12 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTexts")</f>
-        <v>getTexts</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValues")</f>
+        <v>getPropertyValues</v>
       </c>
       <c r="B32" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,expect")</f>
-        <v>element,component,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second")</f>
+        <v>element,component,property,second</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3042,10 +3061,8 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
-TH getTexts contain expected điền giá trị expect+""_boolean_""")</f>
-        <v>expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
-TH getTexts contain expected điền giá trị expect+"_boolean_"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"param number là số lượng value cần check")</f>
+        <v>param number là số lượng value cần check</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
@@ -3070,12 +3087,12 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByTime")</f>
-        <v>getTextsByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getText")</f>
+        <v>getText</v>
       </c>
       <c r="B33" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,second,expect")</f>
-        <v>element,component,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C33" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3083,10 +3100,7 @@
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or time = second")</f>
-        <v>Stop khi actual contain expect or time = second</v>
-      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
       <c r="I33" s="50"/>
@@ -3110,12 +3124,12 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByLocator")</f>
-        <v>getTextsByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextChildElement")</f>
+        <v>getTextChildElement</v>
       </c>
       <c r="B34" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,component1,element2,expect")</f>
-        <v>element1,component1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element_parent,element_fill,component(child,fill)")</f>
+        <v>element_parent,element_fill,component(child,fill)</v>
       </c>
       <c r="C34" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3123,10 +3137,7 @@
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="53" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or element 2 display")</f>
-        <v>Stop khi actual contain expect or element 2 display</v>
-      </c>
+      <c r="F34" s="53"/>
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
@@ -3150,12 +3161,12 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextNoColor")</f>
-        <v>getTextNoColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTexts")</f>
+        <v>getTexts</v>
       </c>
       <c r="B35" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,...string split")</f>
-        <v>element,component,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,expect")</f>
+        <v>element,component,expect</v>
       </c>
       <c r="C35" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3163,7 +3174,12 @@
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
+TH getTexts contain expected điền giá trị expect+""_boolean_""")</f>
+        <v>expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
+TH getTexts contain expected điền giá trị expect+"_boolean_"</v>
+      </c>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
@@ -3187,22 +3203,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
-        <v>getTextAlphabet</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByTime")</f>
+        <v>getTextsByTime</v>
       </c>
       <c r="B36" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
-        <v>element,component</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,second,expect")</f>
+        <v>element,component,second,expect</v>
       </c>
       <c r="C36" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
-        <v>return string only alphabet and space</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or time = second")</f>
+        <v>Stop khi actual contain expect or time = second</v>
       </c>
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
@@ -3227,12 +3243,12 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByLocator")</f>
+        <v>getTextsByLocator</v>
       </c>
       <c r="B37" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,component1,element2,expect")</f>
+        <v>element1,component1,element2,expect</v>
       </c>
       <c r="C37" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3240,11 +3256,9 @@
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F37" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or element 2 display")</f>
+        <v>Stop khi actual contain expect or element 2 display</v>
       </c>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
@@ -3269,16 +3283,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextNoColor")</f>
+        <v>getTextNoColor</v>
       </c>
       <c r="B38" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,...string split")</f>
+        <v>element,component,...string split</v>
       </c>
       <c r="C38" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -3306,12 +3320,12 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B39" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C39" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3319,7 +3333,10 @@
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
+      </c>
       <c r="G39" s="50"/>
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
@@ -3343,12 +3360,12 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B40" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C40" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3356,7 +3373,12 @@
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="51"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
@@ -3380,12 +3402,12 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B41" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C41" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3417,16 +3439,16 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B42" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C42" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -3454,22 +3476,19 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B43" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C43" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="18"/>
-      <c r="E43" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="51"/>
       <c r="G43" s="50"/>
       <c r="H43" s="50"/>
@@ -3494,23 +3513,20 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B44" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C44" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="F44" s="51"/>
       <c r="G44" s="50"/>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
@@ -3534,12 +3550,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B45" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C45" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3547,10 +3563,7 @@
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
-      </c>
+      <c r="F45" s="18"/>
       <c r="G45" s="50"/>
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
@@ -3574,23 +3587,23 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B46" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C46" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
-      </c>
+      <c r="E46" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F46" s="18"/>
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
@@ -3614,12 +3627,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B47" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C47" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3628,8 +3641,8 @@
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G47" s="50"/>
       <c r="H47" s="50"/>
@@ -3654,12 +3667,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B48" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C48" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3667,7 +3680,10 @@
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="51"/>
+      <c r="F48" s="51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
+      </c>
       <c r="G48" s="50"/>
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
@@ -3691,12 +3707,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B49" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C49" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3704,7 +3720,10 @@
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="F49" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
+      </c>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
@@ -3728,12 +3747,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B50" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C50" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3741,7 +3760,10 @@
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="F50" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G50" s="50"/>
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
@@ -3765,12 +3787,12 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B51" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C51" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3778,10 +3800,7 @@
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F51" s="18"/>
       <c r="G51" s="50"/>
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
@@ -3805,16 +3824,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B52" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C52" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -3842,12 +3861,12 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B53" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C53" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3879,12 +3898,12 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B54" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C54" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3892,7 +3911,10 @@
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
       <c r="I54" s="50"/>
@@ -3916,16 +3938,16 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B55" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C55" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="18"/>
@@ -3953,12 +3975,12 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveAndUp")</f>
+        <v>moveAndUp</v>
       </c>
       <c r="B56" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C56" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3967,8 +3989,8 @@
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng khi move có hành động up")</f>
+        <v>sử dụng khi move có hành động up</v>
       </c>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
@@ -3993,23 +4015,18 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B57" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C57" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D57" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D57" s="51"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="50"/>
@@ -4035,16 +4052,16 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B58" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C58" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="51"/>
@@ -4072,21 +4089,18 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B59" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C59" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+      <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="50"/>
@@ -4112,22 +4126,22 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B60" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C60" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
       </c>
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
@@ -4152,20 +4166,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B61" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C61" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D61" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -4192,22 +4208,19 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B62" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C62" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D62" s="51"/>
-      <c r="E62" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="50"/>
       <c r="H62" s="50"/>
@@ -4232,18 +4245,21 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B63" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C63" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D63" s="18"/>
+      <c r="D63" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E63" s="18"/>
       <c r="F63" s="51"/>
       <c r="G63" s="50"/>
@@ -4269,12 +4285,12 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B64" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C64" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4282,7 +4298,10 @@
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="51"/>
+      <c r="F64" s="51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G64" s="50"/>
       <c r="H64" s="50"/>
       <c r="I64" s="50"/>
@@ -4306,18 +4325,21 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B65" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C65" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="50"/>
@@ -4343,22 +4365,22 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B66" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C66" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D66" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
-      <c r="E66" s="18"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F66" s="51"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
@@ -4383,12 +4405,12 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B67" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C67" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4396,14 +4418,7 @@
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F67" s="51"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
@@ -4427,12 +4442,12 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B68" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C68" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4440,16 +4455,7 @@
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
-      <c r="F68" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
-      </c>
+      <c r="F68" s="51"/>
       <c r="G68" s="50"/>
       <c r="H68" s="50"/>
       <c r="I68" s="50"/>
@@ -4473,14 +4479,17 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B69" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C69" s="51"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
+      </c>
+      <c r="C69" s="51" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="51"/>
@@ -4507,18 +4516,21 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B70" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C70" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D70" s="18"/>
+      <c r="D70" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
       <c r="G70" s="50"/>
@@ -4544,25 +4556,26 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B71" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
       </c>
       <c r="C71" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D71" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+      <c r="D71" s="18"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1</v>
       </c>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
@@ -4587,22 +4600,25 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isVideoplay")</f>
+        <v>isVideoplay</v>
       </c>
       <c r="B72" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C72" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"true,false")</f>
+        <v>true,false</v>
+      </c>
       <c r="F72" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dựa vào value time &gt;0 ==&gt; true")</f>
+        <v>dựa vào value time &gt;0 ==&gt; true</v>
       </c>
       <c r="G72" s="50"/>
       <c r="H72" s="50"/>
@@ -4627,20 +4643,29 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
-        <v>returnPathReplaceVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B73" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
-        <v>string, replaceStr</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
       </c>
       <c r="C73" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
+      <c r="F73" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
@@ -4664,17 +4689,14 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B74" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
-      </c>
-      <c r="C74" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C74" s="51"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -4701,12 +4723,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B75" s="51" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C75" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4738,22 +4760,25 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B76" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C76" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D76" s="50"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D76" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E76" s="50"/>
       <c r="F76" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G76" s="50"/>
       <c r="H76" s="50"/>
@@ -4778,8 +4803,8 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B77" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -4792,8 +4817,8 @@
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
@@ -4818,16 +4843,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B78" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C78" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
@@ -4855,12 +4880,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B79" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C79" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4892,12 +4917,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B80" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C80" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4929,12 +4954,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathChild")</f>
+        <v>returnPathChild</v>
       </c>
       <c r="B81" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementParent,index")</f>
+        <v>elementParent,index</v>
       </c>
       <c r="C81" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4966,12 +4991,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B82" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C82" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4979,7 +5004,10 @@
       </c>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
+      <c r="F82" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G82" s="50"/>
       <c r="H82" s="50"/>
       <c r="I82" s="50"/>
@@ -5003,12 +5031,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B83" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C83" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5016,7 +5044,10 @@
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
+      <c r="F83" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G83" s="50"/>
       <c r="H83" s="50"/>
       <c r="I83" s="50"/>
@@ -5040,12 +5071,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathParent")</f>
+        <v>returnPathParent</v>
       </c>
       <c r="B84" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementChild,index")</f>
+        <v>elementChild,index</v>
       </c>
       <c r="C84" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5077,16 +5108,16 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B85" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C85" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
@@ -5114,12 +5145,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B86" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C86" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5151,12 +5182,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B87" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C87" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5164,10 +5195,7 @@
       </c>
       <c r="D87" s="50"/>
       <c r="E87" s="50"/>
-      <c r="F87" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gán giá trị cho biến index trong variable file ")</f>
-        <v>gán giá trị cho biến index trong variable file </v>
-      </c>
+      <c r="F87" s="50"/>
       <c r="G87" s="50"/>
       <c r="H87" s="50"/>
       <c r="I87" s="50"/>
@@ -5191,13 +5219,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
-        <v>addVariableFile</v>
-      </c>
-      <c r="B88" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
-        <v>key,add</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
+      </c>
+      <c r="B88" s="50"/>
       <c r="C88" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -5228,12 +5253,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dragTheLetter")</f>
+        <v>dragTheLetter</v>
       </c>
       <c r="B89" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pre-locator 1, pre-locator2[,expected]")</f>
+        <v>pre-locator 1, pre-locator2[,expected]</v>
       </c>
       <c r="C89" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5265,12 +5290,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dragUp")</f>
+        <v>dragUp</v>
       </c>
       <c r="B90" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C90" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5278,10 +5303,7 @@
       </c>
       <c r="D90" s="50"/>
       <c r="E90" s="50"/>
-      <c r="F90" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F90" s="50"/>
       <c r="G90" s="50"/>
       <c r="H90" s="50"/>
       <c r="I90" s="50"/>
@@ -5305,12 +5327,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag_simulate")</f>
+        <v>drag_simulate</v>
       </c>
       <c r="B91" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,index,element2,index")</f>
+        <v>element1,index,element2,index</v>
       </c>
       <c r="C91" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5318,10 +5340,7 @@
       </c>
       <c r="D91" s="50"/>
       <c r="E91" s="50"/>
-      <c r="F91" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F91" s="50"/>
       <c r="G91" s="50"/>
       <c r="H91" s="50"/>
       <c r="I91" s="50"/>
@@ -5345,12 +5364,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag_simulate")</f>
+        <v>drag_simulate</v>
       </c>
       <c r="B92" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pre-element1,pre-element2,element")</f>
+        <v>pre-element1,pre-element2,element</v>
       </c>
       <c r="C92" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5358,10 +5377,7 @@
       </c>
       <c r="D92" s="50"/>
       <c r="E92" s="50"/>
-      <c r="F92" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
-      </c>
+      <c r="F92" s="50"/>
       <c r="G92" s="50"/>
       <c r="H92" s="50"/>
       <c r="I92" s="50"/>
@@ -5385,12 +5401,12 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B93" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C93" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5422,12 +5438,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B94" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C94" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5459,20 +5475,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B95" s="50"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
+      </c>
+      <c r="B95" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
+      </c>
       <c r="C95" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D95" s="50"/>
       <c r="E95" s="50"/>
-      <c r="F95" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F95" s="50"/>
       <c r="G95" s="50"/>
       <c r="H95" s="50"/>
       <c r="I95" s="50"/>
@@ -5496,20 +5512,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B96" s="50"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
+      </c>
+      <c r="B96" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
+      </c>
       <c r="C96" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="50"/>
-      <c r="F96" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F96" s="50"/>
       <c r="G96" s="50"/>
       <c r="H96" s="50"/>
       <c r="I96" s="50"/>
@@ -5533,16 +5549,16 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B97" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C97" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D97" s="50"/>
       <c r="E97" s="50"/>
@@ -5570,16 +5586,16 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B98" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C98" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="50"/>
@@ -5607,20 +5623,23 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B99" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C99" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D99" s="50"/>
       <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
+      <c r="F99" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gán giá trị cho biến index trong variable file ")</f>
+        <v>gán giá trị cho biến index trong variable file </v>
+      </c>
       <c r="G99" s="50"/>
       <c r="H99" s="50"/>
       <c r="I99" s="50"/>
@@ -5644,12 +5663,12 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
+        <v>addVariableFile</v>
       </c>
       <c r="B100" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
-        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
+        <v>key,add</v>
       </c>
       <c r="C100" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5657,10 +5676,7 @@
       </c>
       <c r="D100" s="50"/>
       <c r="E100" s="50"/>
-      <c r="F100" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F100" s="50"/>
       <c r="G100" s="50"/>
       <c r="H100" s="50"/>
       <c r="I100" s="50"/>
@@ -5684,12 +5700,12 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B101" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C101" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5721,20 +5737,23 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B102" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C102" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D102" s="50"/>
       <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
+      <c r="F102" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
+      </c>
       <c r="G102" s="50"/>
       <c r="H102" s="50"/>
       <c r="I102" s="50"/>
@@ -5758,12 +5777,12 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B103" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
-        <v>element,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C103" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5772,8 +5791,8 @@
       <c r="D103" s="50"/>
       <c r="E103" s="50"/>
       <c r="F103" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G103" s="50"/>
       <c r="H103" s="50"/>
@@ -5798,22 +5817,22 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
-        <v>comPairImage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B104" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C104" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="50"/>
       <c r="F104" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
-        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
       </c>
       <c r="G104" s="50"/>
       <c r="H104" s="50"/>
@@ -5838,23 +5857,20 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
-        <v>comPairWordHasImage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B105" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C105" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D105" s="50"/>
       <c r="E105" s="50"/>
-      <c r="F105" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
-        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
-      </c>
+      <c r="F105" s="50"/>
       <c r="G105" s="50"/>
       <c r="H105" s="50"/>
       <c r="I105" s="50"/>
@@ -5878,12 +5894,12 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
-        <v>skipLesson</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
       </c>
       <c r="B106" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
       </c>
       <c r="C106" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5891,10 +5907,7 @@
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="50"/>
-      <c r="F106" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
-        <v>sử dụng với những nút có thể onclick()</v>
-      </c>
+      <c r="F106" s="50"/>
       <c r="G106" s="50"/>
       <c r="H106" s="50"/>
       <c r="I106" s="50"/>
@@ -5918,14 +5931,20 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B107" s="50"/>
-      <c r="C107" s="50"/>
+      <c r="C107" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D107" s="50"/>
       <c r="E107" s="50"/>
-      <c r="F107" s="50"/>
+      <c r="F107" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G107" s="50"/>
       <c r="H107" s="50"/>
       <c r="I107" s="50"/>
@@ -5948,12 +5967,21 @@
       <c r="Z107" s="50"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="50"/>
+      <c r="A108" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
       <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
+      <c r="C108" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D108" s="50"/>
       <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
+      <c r="F108" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G108" s="50"/>
       <c r="H108" s="50"/>
       <c r="I108" s="50"/>
@@ -5976,9 +6004,18 @@
       <c r="Z108" s="50"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="50"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
+      <c r="A109" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
+      </c>
+      <c r="B109" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C109" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D109" s="50"/>
       <c r="E109" s="50"/>
       <c r="F109" s="50"/>
@@ -6004,9 +6041,18 @@
       <c r="Z109" s="50"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="50"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
+      <c r="A110" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
+      </c>
+      <c r="B110" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
+      </c>
+      <c r="C110" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D110" s="50"/>
       <c r="E110" s="50"/>
       <c r="F110" s="50"/>
@@ -6032,9 +6078,18 @@
       <c r="Z110" s="50"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="50"/>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
+      <c r="A111" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
+      </c>
+      <c r="B111" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
+      </c>
+      <c r="C111" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
       <c r="F111" s="50"/>
@@ -6060,12 +6115,24 @@
       <c r="Z111" s="50"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="50"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
+      <c r="A112" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
+      </c>
+      <c r="B112" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
+      </c>
+      <c r="C112" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D112" s="50"/>
       <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
+      <c r="F112" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G112" s="50"/>
       <c r="H112" s="50"/>
       <c r="I112" s="50"/>
@@ -6088,9 +6155,18 @@
       <c r="Z112" s="50"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="50"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
+      <c r="A113" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B113" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C113" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D113" s="50"/>
       <c r="E113" s="50"/>
       <c r="F113" s="50"/>
@@ -6116,9 +6192,18 @@
       <c r="Z113" s="50"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="50"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
+      <c r="A114" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B114" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C114" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
       <c r="F114" s="50"/>
@@ -6144,12 +6229,24 @@
       <c r="Z114" s="50"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="50"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
+      <c r="A115" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B115" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
+      </c>
+      <c r="C115" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D115" s="50"/>
       <c r="E115" s="50"/>
-      <c r="F115" s="50"/>
+      <c r="F115" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G115" s="50"/>
       <c r="H115" s="50"/>
       <c r="I115" s="50"/>
@@ -6172,12 +6269,24 @@
       <c r="Z115" s="50"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
+      <c r="A116" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
+      </c>
+      <c r="B116" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C116" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D116" s="50"/>
       <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
+      <c r="F116" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G116" s="50"/>
       <c r="H116" s="50"/>
       <c r="I116" s="50"/>
@@ -6200,12 +6309,24 @@
       <c r="Z116" s="50"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
+      <c r="A117" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
+        <v>comPairWordHasImage</v>
+      </c>
+      <c r="B117" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C117" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D117" s="50"/>
       <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
+      <c r="F117" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G117" s="50"/>
       <c r="H117" s="50"/>
       <c r="I117" s="50"/>
@@ -6228,12 +6349,24 @@
       <c r="Z117" s="50"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
+      <c r="A118" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
+      </c>
+      <c r="B118" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C118" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D118" s="50"/>
       <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
+      <c r="F118" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
+      </c>
       <c r="G118" s="50"/>
       <c r="H118" s="50"/>
       <c r="I118" s="50"/>
@@ -6256,9 +6389,15 @@
       <c r="Z118" s="50"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="50"/>
+      <c r="A119" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
+      </c>
       <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
+      <c r="C119" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D119" s="50"/>
       <c r="E119" s="50"/>
       <c r="F119" s="50"/>
@@ -6284,12 +6423,24 @@
       <c r="Z119" s="50"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="50"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="50"/>
+      <c r="A120" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
+      <c r="B120" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,value")</f>
+        <v>key,value</v>
+      </c>
+      <c r="C120" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D120" s="50"/>
       <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
+      <c r="F120" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value cho bieens vowis type string")</f>
+        <v>set value cho bieens vowis type string</v>
+      </c>
       <c r="G120" s="50"/>
       <c r="H120" s="50"/>
       <c r="I120" s="50"/>
@@ -6312,12 +6463,21 @@
       <c r="Z120" s="50"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="50"/>
+      <c r="A121" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getValueOfVariable")</f>
+        <v>getValueOfVariable</v>
+      </c>
       <c r="B121" s="50"/>
-      <c r="C121" s="50"/>
+      <c r="C121" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D121" s="50"/>
       <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
+      <c r="F121" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value in variable file")</f>
+        <v>return value in variable file</v>
+      </c>
       <c r="G121" s="50"/>
       <c r="H121" s="50"/>
       <c r="I121" s="50"/>
@@ -6340,9 +6500,18 @@
       <c r="Z121" s="50"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="50"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
+      <c r="A122" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPathStartWith")</f>
+        <v>getPathStartWith</v>
+      </c>
+      <c r="B122" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"start with,index,expect")</f>
+        <v>start with,index,expect</v>
+      </c>
+      <c r="C122" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D122" s="50"/>
       <c r="E122" s="50"/>
       <c r="F122" s="50"/>
@@ -6368,9 +6537,18 @@
       <c r="Z122" s="50"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="50"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50"/>
+      <c r="A123" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"takePhoto")</f>
+        <v>takePhoto</v>
+      </c>
+      <c r="B123" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"path,folder,name")</f>
+        <v>path,folder,name</v>
+      </c>
+      <c r="C123" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
       <c r="F123" s="50"/>
@@ -6396,9 +6574,18 @@
       <c r="Z123" s="50"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="50"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
+      <c r="A124" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickImage")</f>
+        <v>clickImage</v>
+      </c>
+      <c r="B124" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"path")</f>
+        <v>path</v>
+      </c>
+      <c r="C124" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D124" s="50"/>
       <c r="E124" s="50"/>
       <c r="F124" s="50"/>
@@ -6424,9 +6611,18 @@
       <c r="Z124" s="50"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="50"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
+      <c r="A125" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickImage")</f>
+        <v>clickImage</v>
+      </c>
+      <c r="B125" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"folder,name_image_subFolder")</f>
+        <v>folder,name_image_subFolder</v>
+      </c>
+      <c r="C125" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D125" s="50"/>
       <c r="E125" s="50"/>
       <c r="F125" s="50"/>
@@ -6452,9 +6648,18 @@
       <c r="Z125" s="50"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="50"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
+      <c r="A126" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendUpperKey")</f>
+        <v>sendUpperKey</v>
+      </c>
+      <c r="B126" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,text")</f>
+        <v>element,component,text</v>
+      </c>
+      <c r="C126" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D126" s="50"/>
       <c r="E126" s="50"/>
       <c r="F126" s="50"/>
@@ -6480,9 +6685,18 @@
       <c r="Z126" s="50"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="50"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
+      <c r="A127" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setNameGoes")</f>
+        <v>setNameGoes</v>
+      </c>
+      <c r="B127" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,text")</f>
+        <v>locator,text</v>
+      </c>
+      <c r="C127" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D127" s="50"/>
       <c r="E127" s="50"/>
       <c r="F127" s="50"/>
@@ -6508,12 +6722,24 @@
       <c r="Z127" s="50"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="50"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
+      <c r="A128" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getChild")</f>
+        <v>getChild</v>
+      </c>
+      <c r="B128" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,index")</f>
+        <v>locator,index</v>
+      </c>
+      <c r="C128" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D128" s="50"/>
       <c r="E128" s="50"/>
-      <c r="F128" s="50"/>
+      <c r="F128" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element của parent,index của child")</f>
+        <v>element của parent,index của child</v>
+      </c>
       <c r="G128" s="50"/>
       <c r="H128" s="50"/>
       <c r="I128" s="50"/>
@@ -6536,9 +6762,18 @@
       <c r="Z128" s="50"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="50"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="50"/>
+      <c r="A129" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"touchByOS")</f>
+        <v>touchByOS</v>
+      </c>
+      <c r="B129" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x,y")</f>
+        <v>x,y</v>
+      </c>
+      <c r="C129" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D129" s="50"/>
       <c r="E129" s="50"/>
       <c r="F129" s="50"/>
@@ -6564,9 +6799,15 @@
       <c r="Z129" s="50"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="50"/>
+      <c r="A130" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"touchForElementDisplay")</f>
+        <v>touchForElementDisplay</v>
+      </c>
       <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
+      <c r="C130" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D130" s="50"/>
       <c r="E130" s="50"/>
       <c r="F130" s="50"/>
@@ -6592,9 +6833,18 @@
       <c r="Z130" s="50"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="50"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
+      <c r="A131" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickByPoco")</f>
+        <v>clickByPoco</v>
+      </c>
+      <c r="B131" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C131" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D131" s="50"/>
       <c r="E131" s="50"/>
       <c r="F131" s="50"/>
@@ -6620,9 +6870,18 @@
       <c r="Z131" s="50"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="50"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
+      <c r="A132" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickByPositionPoco")</f>
+        <v>clickByPositionPoco</v>
+      </c>
+      <c r="B132" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C132" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D132" s="50"/>
       <c r="E132" s="50"/>
       <c r="F132" s="50"/>
@@ -6648,9 +6907,18 @@
       <c r="Z132" s="50"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="50"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
+      <c r="A133" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairVideo")</f>
+        <v>comPairVideo</v>
+      </c>
+      <c r="B133" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C133" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D133" s="50"/>
       <c r="E133" s="50"/>
       <c r="F133" s="50"/>
@@ -6676,9 +6944,18 @@
       <c r="Z133" s="50"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
+      <c r="A134" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContainSentence")</f>
+        <v>getTextContainSentence</v>
+      </c>
+      <c r="B134" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sentence, text")</f>
+        <v>sentence, text</v>
+      </c>
+      <c r="C134" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D134" s="50"/>
       <c r="E134" s="50"/>
       <c r="F134" s="50"/>
@@ -6704,7 +6981,10 @@
       <c r="Z134" s="50"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="50"/>
+      <c r="A135" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifySentence")</f>
+        <v>verifySentence</v>
+      </c>
       <c r="B135" s="50"/>
       <c r="C135" s="50"/>
       <c r="D135" s="50"/>
@@ -6732,7 +7012,10 @@
       <c r="Z135" s="50"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="50"/>
+      <c r="A136" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"compareSentenceByText")</f>
+        <v>compareSentenceByText</v>
+      </c>
       <c r="B136" s="50"/>
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
@@ -6760,9 +7043,18 @@
       <c r="Z136" s="50"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
+      <c r="A137" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"timeScale")</f>
+        <v>timeScale</v>
+      </c>
+      <c r="B137" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
+      </c>
+      <c r="C137" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D137" s="50"/>
       <c r="E137" s="50"/>
       <c r="F137" s="50"/>
@@ -6788,9 +7080,18 @@
       <c r="Z137" s="50"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
+      <c r="A138" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceWordMachine")</f>
+        <v>getSentenceWordMachine</v>
+      </c>
+      <c r="B138" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"parent,remove locator,comp,right")</f>
+        <v>parent,remove locator,comp,right</v>
+      </c>
+      <c r="C138" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D138" s="50"/>
       <c r="E138" s="50"/>
       <c r="F138" s="50"/>
@@ -6816,9 +7117,18 @@
       <c r="Z138" s="50"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="50"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
+      <c r="A139" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickWhichDisplay")</f>
+        <v>clickWhichDisplay</v>
+      </c>
+      <c r="B139" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C139" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D139" s="50"/>
       <c r="E139" s="50"/>
       <c r="F139" s="50"/>
@@ -6844,9 +7154,18 @@
       <c r="Z139" s="50"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
+      <c r="A140" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipe_poco")</f>
+        <v>swipe_poco</v>
+      </c>
+      <c r="B140" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
+        <v>x1,x2,y</v>
+      </c>
+      <c r="C140" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D140" s="50"/>
       <c r="E140" s="50"/>
       <c r="F140" s="50"/>
@@ -6872,9 +7191,18 @@
       <c r="Z140" s="50"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
+      <c r="A141" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxJump")</f>
+        <v>maxJump</v>
+      </c>
+      <c r="B141" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,expected")</f>
+        <v>locator,expected</v>
+      </c>
+      <c r="C141" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D141" s="50"/>
       <c r="E141" s="50"/>
       <c r="F141" s="50"/>
@@ -6900,7 +7228,10 @@
       <c r="Z141" s="50"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="50"/>
+      <c r="A142" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathByAudio")</f>
+        <v>returnPathByAudio</v>
+      </c>
       <c r="B142" s="50"/>
       <c r="C142" s="50"/>
       <c r="D142" s="50"/>
@@ -6928,9 +7259,18 @@
       <c r="Z142" s="50"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="50"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
+      <c r="A143" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="50"/>
       <c r="E143" s="50"/>
       <c r="F143" s="50"/>
@@ -6956,9 +7296,15 @@
       <c r="Z143" s="50"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="50"/>
+      <c r="A144" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
+      <c r="C144" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="50"/>
       <c r="E144" s="50"/>
       <c r="F144" s="50"/>
@@ -6984,9 +7330,18 @@
       <c r="Z144" s="50"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="50"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
+      <c r="A145" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="50"/>
       <c r="E145" s="50"/>
       <c r="F145" s="50"/>
@@ -7012,9 +7367,15 @@
       <c r="Z145" s="50"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="50"/>
+      <c r="A146" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
+      <c r="C146" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="50"/>
       <c r="E146" s="50"/>
       <c r="F146" s="50"/>
@@ -7040,7 +7401,10 @@
       <c r="Z146" s="50"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="50"/>
+      <c r="A147" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="50"/>
       <c r="C147" s="50"/>
       <c r="D147" s="50"/>
@@ -7068,7 +7432,10 @@
       <c r="Z147" s="50"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="50"/>
+      <c r="A148" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="50"/>
       <c r="C148" s="50"/>
       <c r="D148" s="50"/>
@@ -7096,7 +7463,10 @@
       <c r="Z148" s="50"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="50"/>
+      <c r="A149" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="50"/>
       <c r="C149" s="50"/>
       <c r="D149" s="50"/>
@@ -7124,7 +7494,10 @@
       <c r="Z149" s="50"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="50"/>
+      <c r="A150" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByListText")</f>
+        <v>getSentenceByListText</v>
+      </c>
       <c r="B150" s="50"/>
       <c r="C150" s="50"/>
       <c r="D150" s="50"/>
@@ -7152,7 +7525,10 @@
       <c r="Z150" s="50"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="50"/>
+      <c r="A151" s="50" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabetAndNumber")</f>
+        <v>getTextAlphabetAndNumber</v>
+      </c>
       <c r="B151" s="50"/>
       <c r="C151" s="50"/>
       <c r="D151" s="50"/>

--- a/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
+++ b/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
@@ -259,7 +259,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>3,second</t>
+    <t>second,3</t>
   </si>
   <si>
     <t>Answer/AnswerBrick(Clone)[0],20</t>
